--- a/江西/导出模板/市场化合同分析结果.xlsx
+++ b/江西/导出模板/市场化合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34CDA88-52BB-42C5-B05B-95D074FCC0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A0F06CB-7376-4F04-B09A-1566A5AEBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -129,7 +129,10 @@
     <t>峰平谷统计</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
   <si>
     <t>合同电费</t>
@@ -257,20 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,6 +283,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,7 +370,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,60 +626,60 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
         <v>1158.2549679967742</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1166.5812124341667</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>-8.3262444373924289</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>25923.396451612902</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>446.79907980372298</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>450.010944596569</v>
       </c>
     </row>
@@ -625,867 +696,867 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>5654650.2074838709</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>216373.01606182795</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>264000.58506182797</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>284635.92606182798</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>219610.37106182796</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>253665.54406182794</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>229822.08106182798</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>242443.58706182794</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>191615.08006182796</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>279124.53906182799</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>226195.79006182792</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>199465.14606182795</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>268182.05406182795</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>278576.00406182796</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>216328.10506182796</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>223713.39506182793</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>192278.35106182794</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>254496.97406182799</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>265362.23606182798</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>306922.92106182792</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>227975.54506182796</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>207268.44006182795</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>201606.88306182798</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>170464.96406182798</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>234522.66906182794</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
+        <v>12312.30322580645</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>483.0843010752688</v>
+      </c>
+      <c r="F3" s="1">
+        <v>514.13430107526881</v>
+      </c>
+      <c r="G3" s="1">
+        <v>596.9043010752689</v>
+      </c>
+      <c r="H3" s="1">
+        <v>493.21430107526885</v>
+      </c>
+      <c r="I3" s="1">
+        <v>575.35430107526872</v>
+      </c>
+      <c r="J3" s="1">
+        <v>481.40430107526879</v>
+      </c>
+      <c r="K3" s="1">
+        <v>458.87430107526882</v>
+      </c>
+      <c r="L3" s="1">
+        <v>432.54430107526878</v>
+      </c>
+      <c r="M3" s="1">
+        <v>546.72430107526884</v>
+      </c>
+      <c r="N3" s="1">
+        <v>473.63430107526881</v>
+      </c>
+      <c r="O3" s="1">
+        <v>517.95430107526886</v>
+      </c>
+      <c r="P3" s="1">
+        <v>465.1443010752688</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>544.1643010752689</v>
+      </c>
+      <c r="R3" s="1">
+        <v>561.79430107526878</v>
+      </c>
+      <c r="S3" s="1">
+        <v>520.47430107526884</v>
+      </c>
+      <c r="T3" s="1">
+        <v>514.10430107526884</v>
+      </c>
+      <c r="U3" s="1">
+        <v>487.43430107526882</v>
+      </c>
+      <c r="V3" s="1">
+        <v>625.29430107526878</v>
+      </c>
+      <c r="W3" s="1">
+        <v>566.07430107526886</v>
+      </c>
+      <c r="X3" s="1">
+        <v>534.9043010752689</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>479.20430107526886</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>429.47430107526884</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>504.40430107526885</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>506.00430107526881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>459.26827042659141</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>447.89908423895383</v>
+      </c>
+      <c r="F4" s="1">
+        <v>513.48564861300417</v>
+      </c>
+      <c r="G4" s="1">
+        <v>476.85353506262595</v>
+      </c>
+      <c r="H4" s="1">
+        <v>445.26359147139465</v>
+      </c>
+      <c r="I4" s="1">
+        <v>440.88580477760786</v>
+      </c>
+      <c r="J4" s="1">
+        <v>477.39930978700318</v>
+      </c>
+      <c r="K4" s="1">
+        <v>528.3442251913342</v>
+      </c>
+      <c r="L4" s="1">
+        <v>442.99527143344386</v>
+      </c>
+      <c r="M4" s="1">
+        <v>510.53984341442367</v>
+      </c>
+      <c r="N4" s="1">
+        <v>477.57476506305954</v>
+      </c>
+      <c r="O4" s="1">
+        <v>385.10182394033598</v>
+      </c>
+      <c r="P4" s="1">
+        <v>576.55668024282897</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>511.93362650096975</v>
+      </c>
+      <c r="R4" s="1">
+        <v>385.06639289109569</v>
+      </c>
+      <c r="S4" s="1">
+        <v>429.82601561623585</v>
+      </c>
+      <c r="T4" s="1">
+        <v>374.00650152054828</v>
+      </c>
+      <c r="U4" s="1">
+        <v>522.11543894308124</v>
+      </c>
+      <c r="V4" s="1">
+        <v>424.37974503446725</v>
+      </c>
+      <c r="W4" s="1">
+        <v>542.19546882595091</v>
+      </c>
+      <c r="X4" s="1">
+        <v>426.19875107294837</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>432.52625153143646</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>469.42711719203601</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>337.95303429894949</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>463.4795960498019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>463.60173059826002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>345.29999999999995</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301.74999999999994</v>
+      </c>
+      <c r="G5" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>252.75</v>
+      </c>
+      <c r="I5" s="1">
+        <v>262.24999999999994</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401.04999999999995</v>
+      </c>
+      <c r="L5" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M5" s="1">
+        <v>528.74999999999989</v>
+      </c>
+      <c r="N5" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P5" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>293.99999999999994</v>
+      </c>
+      <c r="R5" s="1">
+        <v>315</v>
+      </c>
+      <c r="S5" s="1">
+        <v>376.14999999999992</v>
+      </c>
+      <c r="T5" s="1">
+        <v>477.80000000000007</v>
+      </c>
+      <c r="U5" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>668</v>
+      </c>
+      <c r="W5" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X5" s="1">
+        <v>749.49999999999989</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>-4.3334601716686052</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>102.59908423895388</v>
+      </c>
+      <c r="F6" s="1">
+        <v>211.73564861300423</v>
+      </c>
+      <c r="G6" s="1">
+        <v>192.10353506262595</v>
+      </c>
+      <c r="H6" s="1">
+        <v>192.51359147139465</v>
+      </c>
+      <c r="I6" s="1">
+        <v>178.63580477760792</v>
+      </c>
+      <c r="J6" s="1">
+        <v>174.64930978700312</v>
+      </c>
+      <c r="K6" s="1">
+        <v>127.29422519133425</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-46.254728566556196</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-18.210156585576215</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-31.675234936940456</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-63.248176059664047</v>
+      </c>
+      <c r="P6" s="1">
+        <v>177.35668024282893</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>217.93362650096981</v>
+      </c>
+      <c r="R6" s="1">
+        <v>70.066392891095688</v>
+      </c>
+      <c r="S6" s="1">
+        <v>53.676015616235929</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-103.79349847945178</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-63.384561056918756</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-243.62025496553275</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-214.05453117404909</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-323.30124892705152</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-309.47374846856354</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-200.32288280796399</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-217.41946570105046</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>34.329596049801921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>5927899.4724838715</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>447.89908423895383</v>
-      </c>
-      <c r="F3" s="2">
-        <v>513.48564861300417</v>
-      </c>
-      <c r="G3" s="2">
-        <v>476.85353506262595</v>
-      </c>
-      <c r="H3" s="2">
-        <v>445.26359147139465</v>
-      </c>
-      <c r="I3" s="2">
-        <v>440.88580477760786</v>
-      </c>
-      <c r="J3" s="2">
-        <v>477.39930978700318</v>
-      </c>
-      <c r="K3" s="2">
-        <v>528.3442251913342</v>
-      </c>
-      <c r="L3" s="2">
-        <v>442.99527143344386</v>
-      </c>
-      <c r="M3" s="2">
-        <v>510.53984341442367</v>
-      </c>
-      <c r="N3" s="2">
-        <v>477.57476506305954</v>
-      </c>
-      <c r="O3" s="2">
-        <v>385.10182394033598</v>
-      </c>
-      <c r="P3" s="2">
-        <v>576.55668024282897</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>511.93362650096975</v>
-      </c>
-      <c r="R3" s="2">
-        <v>385.06639289109569</v>
-      </c>
-      <c r="S3" s="2">
-        <v>429.82601561623585</v>
-      </c>
-      <c r="T3" s="2">
-        <v>374.00650152054828</v>
-      </c>
-      <c r="U3" s="2">
-        <v>522.11543894308124</v>
-      </c>
-      <c r="V3" s="2">
-        <v>424.37974503446725</v>
-      </c>
-      <c r="W3" s="2">
-        <v>542.19546882595091</v>
-      </c>
-      <c r="X3" s="2">
-        <v>426.19875107294837</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>432.52625153143646</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>469.42711719203601</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>337.95303429894949</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>463.4795960498019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
-        <v>463.60173059826002</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E7" s="1">
+        <v>253979.45306182798</v>
+      </c>
+      <c r="F7" s="1">
+        <v>235106.72206182795</v>
+      </c>
+      <c r="G7" s="1">
+        <v>269435.60606182797</v>
+      </c>
+      <c r="H7" s="1">
+        <v>285137.72606182797</v>
+      </c>
+      <c r="I7" s="1">
+        <v>263485.92906182795</v>
+      </c>
+      <c r="J7" s="1">
+        <v>306269.86706182797</v>
+      </c>
+      <c r="K7" s="1">
+        <v>222770.73306182795</v>
+      </c>
+      <c r="L7" s="1">
+        <v>189308.59106182796</v>
+      </c>
+      <c r="M7" s="1">
+        <v>242061.44906182794</v>
+      </c>
+      <c r="N7" s="1">
+        <v>242557.11506182796</v>
+      </c>
+      <c r="O7" s="1">
+        <v>240484.72506182798</v>
+      </c>
+      <c r="P7" s="1">
+        <v>227918.74406182795</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>312672.5970618279</v>
+      </c>
+      <c r="R7" s="1">
+        <v>162834.06806182794</v>
+      </c>
+      <c r="S7" s="1">
+        <v>278856.41106182797</v>
+      </c>
+      <c r="T7" s="1">
+        <v>234469.80006182796</v>
+      </c>
+      <c r="U7" s="1">
+        <v>235170.75406182799</v>
+      </c>
+      <c r="V7" s="1">
+        <v>224206.42506182793</v>
+      </c>
+      <c r="W7" s="1">
+        <v>248825.27306182793</v>
+      </c>
+      <c r="X7" s="1">
+        <v>258484.65506182794</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>275784.92406182794</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>188818.98306182795</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>294606.40706182795</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>234652.51406182794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>13611.093225806453</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>531.06430107526887</v>
+      </c>
+      <c r="F8" s="1">
+        <v>514.21430107526885</v>
+      </c>
+      <c r="G8" s="1">
+        <v>628.05430107526877</v>
+      </c>
+      <c r="H8" s="1">
+        <v>557.75430107526881</v>
+      </c>
+      <c r="I8" s="1">
+        <v>567.58430107526874</v>
+      </c>
+      <c r="J8" s="1">
+        <v>644.81430107526876</v>
+      </c>
+      <c r="K8" s="1">
+        <v>512.09430107526885</v>
+      </c>
+      <c r="L8" s="1">
+        <v>569.38430107526881</v>
+      </c>
+      <c r="M8" s="1">
+        <v>606.81430107526887</v>
+      </c>
+      <c r="N8" s="1">
+        <v>560.62430107526882</v>
+      </c>
+      <c r="O8" s="1">
+        <v>629.61430107526871</v>
+      </c>
+      <c r="P8" s="1">
+        <v>592.25430107526881</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>658.6443010752688</v>
+      </c>
+      <c r="R8" s="1">
+        <v>409.05430107526877</v>
+      </c>
+      <c r="S8" s="1">
+        <v>619.37430107526882</v>
+      </c>
+      <c r="T8" s="1">
+        <v>457.23430107526883</v>
+      </c>
+      <c r="U8" s="1">
+        <v>483.88430107526881</v>
+      </c>
+      <c r="V8" s="1">
+        <v>573.19430107526887</v>
+      </c>
+      <c r="W8" s="1">
+        <v>511.60430107526878</v>
+      </c>
+      <c r="X8" s="1">
+        <v>633.19430107526887</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>577.03430107526879</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>537.0143010752688</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>648.78430107526879</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>587.80430107526877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
+        <v>435.51971719983908</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.29999999999995</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.74999999999994</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.24999999999994</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.04999999999995</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.74999999999989</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>293.99999999999994</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.14999999999992</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.80000000000007</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.49999999999989</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>12312.30322580645</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>483.0843010752688</v>
-      </c>
-      <c r="F5" s="2">
-        <v>514.13430107526881</v>
-      </c>
-      <c r="G5" s="2">
-        <v>596.9043010752689</v>
-      </c>
-      <c r="H5" s="2">
-        <v>493.21430107526885</v>
-      </c>
-      <c r="I5" s="2">
-        <v>575.35430107526872</v>
-      </c>
-      <c r="J5" s="2">
-        <v>481.40430107526879</v>
-      </c>
-      <c r="K5" s="2">
-        <v>458.87430107526882</v>
-      </c>
-      <c r="L5" s="2">
-        <v>432.54430107526878</v>
-      </c>
-      <c r="M5" s="2">
-        <v>546.72430107526884</v>
-      </c>
-      <c r="N5" s="2">
-        <v>473.63430107526881</v>
-      </c>
-      <c r="O5" s="2">
-        <v>517.95430107526886</v>
-      </c>
-      <c r="P5" s="2">
-        <v>465.1443010752688</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>544.1643010752689</v>
-      </c>
-      <c r="R5" s="2">
-        <v>561.79430107526878</v>
-      </c>
-      <c r="S5" s="2">
-        <v>520.47430107526884</v>
-      </c>
-      <c r="T5" s="2">
-        <v>514.10430107526884</v>
-      </c>
-      <c r="U5" s="2">
-        <v>487.43430107526882</v>
-      </c>
-      <c r="V5" s="2">
-        <v>625.29430107526878</v>
-      </c>
-      <c r="W5" s="2">
-        <v>566.07430107526886</v>
-      </c>
-      <c r="X5" s="2">
-        <v>534.9043010752689</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>479.20430107526886</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>429.47430107526884</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>504.40430107526885</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>506.00430107526881</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>-4.3334601716686052</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>478.24614184682491</v>
+      </c>
+      <c r="F9" s="1">
+        <v>457.21544805385309</v>
+      </c>
+      <c r="G9" s="1">
+        <v>429.00049502174755</v>
+      </c>
+      <c r="H9" s="1">
+        <v>511.22461182661272</v>
+      </c>
+      <c r="I9" s="1">
+        <v>464.22342648072367</v>
+      </c>
+      <c r="J9" s="1">
+        <v>474.97375066139745</v>
+      </c>
+      <c r="K9" s="1">
+        <v>435.01896544067296</v>
+      </c>
+      <c r="L9" s="1">
+        <v>332.47947072710497</v>
+      </c>
+      <c r="M9" s="1">
+        <v>398.90531359082587</v>
+      </c>
+      <c r="N9" s="1">
+        <v>432.65537115784514</v>
+      </c>
+      <c r="O9" s="1">
+        <v>381.95562688319347</v>
+      </c>
+      <c r="P9" s="1">
+        <v>384.83256879355622</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>474.72147948653725</v>
+      </c>
+      <c r="R9" s="1">
+        <v>398.07445523440509</v>
+      </c>
+      <c r="S9" s="1">
+        <v>450.22276606846208</v>
+      </c>
+      <c r="T9" s="1">
+        <v>512.80011038198575</v>
+      </c>
+      <c r="U9" s="1">
+        <v>486.00616622453077</v>
+      </c>
+      <c r="V9" s="1">
+        <v>391.15257189618558</v>
+      </c>
+      <c r="W9" s="1">
+        <v>486.36274663613511</v>
+      </c>
+      <c r="X9" s="1">
+        <v>408.22328094690391</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>477.93506130904052</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>351.60885414737356</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>454.08991335573199</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>399.20176431608064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C10">
+        <v>437.71701085048289</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
-        <v>102.59908423895388</v>
-      </c>
-      <c r="F6" s="2">
-        <v>211.73564861300423</v>
-      </c>
-      <c r="G6" s="2">
-        <v>192.10353506262595</v>
-      </c>
-      <c r="H6" s="2">
-        <v>192.51359147139465</v>
-      </c>
-      <c r="I6" s="2">
-        <v>178.63580477760792</v>
-      </c>
-      <c r="J6" s="2">
-        <v>174.64930978700312</v>
-      </c>
-      <c r="K6" s="2">
-        <v>127.29422519133425</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-46.254728566556196</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-18.210156585576215</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-31.675234936940456</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-63.248176059664047</v>
-      </c>
-      <c r="P6" s="2">
-        <v>177.35668024282893</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>217.93362650096981</v>
-      </c>
-      <c r="R6" s="2">
-        <v>70.066392891095688</v>
-      </c>
-      <c r="S6" s="2">
-        <v>53.676015616235929</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-103.79349847945178</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-63.384561056918756</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-243.62025496553275</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-214.05453117404909</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-323.30124892705152</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-309.47374846856354</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-200.32288280796399</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-217.41946570105046</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>34.329596049801921</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>5927899.4724838715</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <v>253979.45306182798</v>
-      </c>
-      <c r="F7" s="2">
-        <v>235106.72206182795</v>
-      </c>
-      <c r="G7" s="2">
-        <v>269435.60606182797</v>
-      </c>
-      <c r="H7" s="2">
-        <v>285137.72606182797</v>
-      </c>
-      <c r="I7" s="2">
-        <v>263485.92906182795</v>
-      </c>
-      <c r="J7" s="2">
-        <v>306269.86706182797</v>
-      </c>
-      <c r="K7" s="2">
-        <v>222770.73306182795</v>
-      </c>
-      <c r="L7" s="2">
-        <v>189308.59106182796</v>
-      </c>
-      <c r="M7" s="2">
-        <v>242061.44906182794</v>
-      </c>
-      <c r="N7" s="2">
-        <v>242557.11506182796</v>
-      </c>
-      <c r="O7" s="2">
-        <v>240484.72506182798</v>
-      </c>
-      <c r="P7" s="2">
-        <v>227918.74406182795</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>312672.5970618279</v>
-      </c>
-      <c r="R7" s="2">
-        <v>162834.06806182794</v>
-      </c>
-      <c r="S7" s="2">
-        <v>278856.41106182797</v>
-      </c>
-      <c r="T7" s="2">
-        <v>234469.80006182796</v>
-      </c>
-      <c r="U7" s="2">
-        <v>235170.75406182799</v>
-      </c>
-      <c r="V7" s="2">
-        <v>224206.42506182793</v>
-      </c>
-      <c r="W7" s="2">
-        <v>248825.27306182793</v>
-      </c>
-      <c r="X7" s="2">
-        <v>258484.65506182794</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>275784.92406182794</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>188818.98306182795</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>294606.40706182795</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>234652.51406182794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>435.51971719983908</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>478.24614184682491</v>
-      </c>
-      <c r="F8" s="2">
-        <v>457.21544805385309</v>
-      </c>
-      <c r="G8" s="2">
-        <v>429.00049502174755</v>
-      </c>
-      <c r="H8" s="2">
-        <v>511.22461182661272</v>
-      </c>
-      <c r="I8" s="2">
-        <v>464.22342648072367</v>
-      </c>
-      <c r="J8" s="2">
-        <v>474.97375066139745</v>
-      </c>
-      <c r="K8" s="2">
-        <v>435.01896544067296</v>
-      </c>
-      <c r="L8" s="2">
-        <v>332.47947072710497</v>
-      </c>
-      <c r="M8" s="2">
-        <v>398.90531359082587</v>
-      </c>
-      <c r="N8" s="2">
-        <v>432.65537115784514</v>
-      </c>
-      <c r="O8" s="2">
-        <v>381.95562688319347</v>
-      </c>
-      <c r="P8" s="2">
-        <v>384.83256879355622</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>474.72147948653725</v>
-      </c>
-      <c r="R8" s="2">
-        <v>398.07445523440509</v>
-      </c>
-      <c r="S8" s="2">
-        <v>450.22276606846208</v>
-      </c>
-      <c r="T8" s="2">
-        <v>512.80011038198575</v>
-      </c>
-      <c r="U8" s="2">
-        <v>486.00616622453077</v>
-      </c>
-      <c r="V8" s="2">
-        <v>391.15257189618558</v>
-      </c>
-      <c r="W8" s="2">
-        <v>486.36274663613511</v>
-      </c>
-      <c r="X8" s="2">
-        <v>408.22328094690391</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>477.93506130904052</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>351.60885414737356</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>454.08991335573199</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>399.20176431608064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2">
-        <v>437.71701085048289</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E10">
         <v>397.24465560535975</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10">
         <v>621.29763421039252</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10">
         <v>486.30338230804983</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10">
         <v>312.0120550667375</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10">
         <v>419.77528864808875</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10">
         <v>434.0829894776324</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10">
         <v>418.10366651508241</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10">
         <v>569.81115016781951</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10">
         <v>431.94579609260273</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10">
         <v>485.26220746082612</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10">
         <v>379.71696197198213</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10">
         <v>371.87751704009554</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10">
         <v>525.01132789460655</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10">
         <v>506.11872369719828</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10">
         <v>529.61934224332538</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10">
         <v>446.02616672818266</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U10">
         <v>324.50152689931434</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V10">
         <v>376.95094802340475</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W10">
         <v>308.78459138867402</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X10">
         <v>333.40691348627121</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10">
         <v>344.78198083093213</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10">
         <v>512.29386198766667</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10">
         <v>517.74864740447561</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="1">
         <v>443.65495259833392</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45001</v>
-      </c>
-      <c r="C10">
-        <v>13611.093225806453</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>531.06430107526887</v>
-      </c>
-      <c r="F10">
-        <v>514.21430107526885</v>
-      </c>
-      <c r="G10">
-        <v>628.05430107526877</v>
-      </c>
-      <c r="H10">
-        <v>557.75430107526881</v>
-      </c>
-      <c r="I10">
-        <v>567.58430107526874</v>
-      </c>
-      <c r="J10">
-        <v>644.81430107526876</v>
-      </c>
-      <c r="K10">
-        <v>512.09430107526885</v>
-      </c>
-      <c r="L10">
-        <v>569.38430107526881</v>
-      </c>
-      <c r="M10">
-        <v>606.81430107526887</v>
-      </c>
-      <c r="N10">
-        <v>560.62430107526882</v>
-      </c>
-      <c r="O10">
-        <v>629.61430107526871</v>
-      </c>
-      <c r="P10">
-        <v>592.25430107526881</v>
-      </c>
-      <c r="Q10">
-        <v>658.6443010752688</v>
-      </c>
-      <c r="R10">
-        <v>409.05430107526877</v>
-      </c>
-      <c r="S10">
-        <v>619.37430107526882</v>
-      </c>
-      <c r="T10">
-        <v>457.23430107526883</v>
-      </c>
-      <c r="U10">
-        <v>483.88430107526881</v>
-      </c>
-      <c r="V10">
-        <v>573.19430107526887</v>
-      </c>
-      <c r="W10">
-        <v>511.60430107526878</v>
-      </c>
-      <c r="X10">
-        <v>633.19430107526887</v>
-      </c>
-      <c r="Y10">
-        <v>577.03430107526879</v>
-      </c>
-      <c r="Z10">
-        <v>537.0143010752688</v>
-      </c>
-      <c r="AA10">
-        <v>648.78430107526879</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>587.80430107526877</v>
-      </c>
-    </row>
     <row r="11" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
       <c r="C11">
         <v>-2.1972936506438145</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>81.001486241465159</v>
@@ -1556,7 +1627,7 @@
       <c r="AA11">
         <v>-63.658734048743611</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>-44.453188282253279</v>
       </c>
     </row>
@@ -1579,440 +1650,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>5654650.2074838709</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>216373.01606182795</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>264000.58506182797</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>284635.92606182798</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>219610.37106182796</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>253665.54406182794</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>229822.08106182798</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>242443.58706182794</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>191615.08006182796</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>279124.53906182799</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>226195.79006182792</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>199465.14606182795</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>268182.05406182795</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>278576.00406182796</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>216328.10506182796</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>223713.39506182793</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>192278.35106182794</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>254496.97406182799</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>265362.23606182798</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>306922.92106182792</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>227975.54506182796</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>207268.44006182795</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>201606.88306182798</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>170464.96406182798</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>234522.66906182794</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>5708005.08313441</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
         <v>166809.00916129031</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>155140.02534946235</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>169968.49973118282</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>124659.91459677421</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>150886.6654569892</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>145745.15215053764</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>184031.53844623655</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>211622.29930107528</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>289080.47419354832</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>241198.26782258064</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>232224.8108870968</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>185685.60498924734</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>159984.30451612902</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>176965.20483870967</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>195776.40834946232</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>245639.03505376348</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>285392.78327956988</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>417696.59311827953</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>428093.6901881721</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>400910.773655914</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>355569.59139784949</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>287640.41314516129</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>280132.27769892471</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>217151.7458064516</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
         <v>49564.006900537643</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>108860.55971236562</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>114667.42633064516</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>94950.45646505375</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>102778.87860483874</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>84076.928911290335</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>58412.048615591397</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>-20007.219239247323</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-9955.9351317203254</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>-15002.477760752721</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>-32759.664825268846</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>82496.44907258061</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>118591.69954569894</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>39362.900223118282</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>27936.986712365615</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>-53360.683991935541</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>-30895.809217741888</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>-152334.35705645155</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>-121170.76912634418</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>-172935.22859408605</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>-148301.15133602155</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>-86033.530083333317</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>-109667.31363709673</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>17370.923255376343</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>5927899.4724838715</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>253979.45306182798</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>235106.72206182795</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>269435.60606182797</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>285137.72606182797</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>263485.92906182795</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>306269.86706182797</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>222770.73306182795</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>189308.59106182796</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>242061.44906182794</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>242557.11506182796</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>240484.72506182798</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>227918.74406182795</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>312672.5970618279</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>162834.06806182794</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>278856.41106182797</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>234469.80006182796</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>235170.75406182799</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>224206.42506182793</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>248825.27306182793</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>258484.65506182794</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>275784.92406182794</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>188818.98306182795</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>294606.40706182795</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>234652.51406182794</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
       <c r="C6">
         <v>5957807.0412072577</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>210962.45538494625</v>
@@ -2083,16 +2154,16 @@
       <c r="AA6">
         <v>335907.1943389785</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>260782.28933064517</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7">
         <v>43016.997676881729</v>
@@ -2163,12 +2234,12 @@
       <c r="AA7">
         <v>-41300.78727715055</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>-26129.775268817233</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2189,596 +2260,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>12312.30322580645</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>483.0843010752688</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>514.13430107526881</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>596.9043010752689</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>493.21430107526885</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>575.35430107526872</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>481.40430107526879</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>458.87430107526882</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>432.54430107526878</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>546.72430107526884</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>473.63430107526881</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>517.95430107526886</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>465.1443010752688</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>544.1643010752689</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>561.79430107526878</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>520.47430107526884</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>514.10430107526884</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>487.43430107526882</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>625.29430107526878</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>566.07430107526886</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>534.9043010752689</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>479.20430107526886</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>429.47430107526884</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>504.40430107526885</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>506.00430107526881</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>459.26827042659141</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
         <v>447.89908423895383</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>513.48564861300417</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>476.85353506262595</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>445.26359147139465</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>440.88580477760786</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>477.39930978700318</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>528.3442251913342</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>442.99527143344386</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>510.53984341442367</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>477.57476506305954</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>385.10182394033598</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>576.55668024282897</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>511.93362650096975</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>385.06639289109569</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>429.82601561623585</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>374.00650152054828</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>522.11543894308124</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>424.37974503446725</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>542.19546882595091</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>426.19875107294837</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>432.52625153143646</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>469.42711719203601</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>337.95303429894949</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>463.4795960498019</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>463.60173059826002</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>345.29999999999995</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.74999999999994</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252.75</v>
+      </c>
+      <c r="I4" s="1">
+        <v>262.24999999999994</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K4" s="1">
+        <v>401.04999999999995</v>
+      </c>
+      <c r="L4" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M4" s="1">
+        <v>528.74999999999989</v>
+      </c>
+      <c r="N4" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P4" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>293.99999999999994</v>
+      </c>
+      <c r="R4" s="1">
+        <v>315</v>
+      </c>
+      <c r="S4" s="1">
+        <v>376.14999999999992</v>
+      </c>
+      <c r="T4" s="1">
+        <v>477.80000000000007</v>
+      </c>
+      <c r="U4" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>668</v>
+      </c>
+      <c r="W4" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X4" s="1">
+        <v>749.49999999999989</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>13611.093225806453</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>531.06430107526887</v>
+      </c>
+      <c r="F5" s="1">
+        <v>514.21430107526885</v>
+      </c>
+      <c r="G5" s="1">
+        <v>628.05430107526877</v>
+      </c>
+      <c r="H5" s="1">
+        <v>557.75430107526881</v>
+      </c>
+      <c r="I5" s="1">
+        <v>567.58430107526874</v>
+      </c>
+      <c r="J5" s="1">
+        <v>644.81430107526876</v>
+      </c>
+      <c r="K5" s="1">
+        <v>512.09430107526885</v>
+      </c>
+      <c r="L5" s="1">
+        <v>569.38430107526881</v>
+      </c>
+      <c r="M5" s="1">
+        <v>606.81430107526887</v>
+      </c>
+      <c r="N5" s="1">
+        <v>560.62430107526882</v>
+      </c>
+      <c r="O5" s="1">
+        <v>629.61430107526871</v>
+      </c>
+      <c r="P5" s="1">
+        <v>592.25430107526881</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>658.6443010752688</v>
+      </c>
+      <c r="R5" s="1">
+        <v>409.05430107526877</v>
+      </c>
+      <c r="S5" s="1">
+        <v>619.37430107526882</v>
+      </c>
+      <c r="T5" s="1">
+        <v>457.23430107526883</v>
+      </c>
+      <c r="U5" s="1">
+        <v>483.88430107526881</v>
+      </c>
+      <c r="V5" s="1">
+        <v>573.19430107526887</v>
+      </c>
+      <c r="W5" s="1">
+        <v>511.60430107526878</v>
+      </c>
+      <c r="X5" s="1">
+        <v>633.19430107526887</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>577.03430107526879</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>537.0143010752688</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>648.78430107526879</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>587.80430107526877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>435.51971719983908</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.29999999999995</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.74999999999994</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.24999999999994</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.04999999999995</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.74999999999989</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>293.99999999999994</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.14999999999992</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.80000000000007</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.49999999999989</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E6" s="1">
+        <v>478.24614184682491</v>
+      </c>
+      <c r="F6" s="1">
+        <v>457.21544805385309</v>
+      </c>
+      <c r="G6" s="1">
+        <v>429.00049502174755</v>
+      </c>
+      <c r="H6" s="1">
+        <v>511.22461182661272</v>
+      </c>
+      <c r="I6" s="1">
+        <v>464.22342648072367</v>
+      </c>
+      <c r="J6" s="1">
+        <v>474.97375066139745</v>
+      </c>
+      <c r="K6" s="1">
+        <v>435.01896544067296</v>
+      </c>
+      <c r="L6" s="1">
+        <v>332.47947072710497</v>
+      </c>
+      <c r="M6" s="1">
+        <v>398.90531359082587</v>
+      </c>
+      <c r="N6" s="1">
+        <v>432.65537115784514</v>
+      </c>
+      <c r="O6" s="1">
+        <v>381.95562688319347</v>
+      </c>
+      <c r="P6" s="1">
+        <v>384.83256879355622</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>474.72147948653725</v>
+      </c>
+      <c r="R6" s="1">
+        <v>398.07445523440509</v>
+      </c>
+      <c r="S6" s="1">
+        <v>450.22276606846208</v>
+      </c>
+      <c r="T6" s="1">
+        <v>512.80011038198575</v>
+      </c>
+      <c r="U6" s="1">
+        <v>486.00616622453077</v>
+      </c>
+      <c r="V6" s="1">
+        <v>391.15257189618558</v>
+      </c>
+      <c r="W6" s="1">
+        <v>486.36274663613511</v>
+      </c>
+      <c r="X6" s="1">
+        <v>408.22328094690391</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>477.93506130904052</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>351.60885414737356</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>454.08991335573199</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>399.20176431608064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>13611.093225806453</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>531.06430107526887</v>
-      </c>
-      <c r="F5" s="2">
-        <v>514.21430107526885</v>
-      </c>
-      <c r="G5" s="2">
-        <v>628.05430107526877</v>
-      </c>
-      <c r="H5" s="2">
-        <v>557.75430107526881</v>
-      </c>
-      <c r="I5" s="2">
-        <v>567.58430107526874</v>
-      </c>
-      <c r="J5" s="2">
-        <v>644.81430107526876</v>
-      </c>
-      <c r="K5" s="2">
-        <v>512.09430107526885</v>
-      </c>
-      <c r="L5" s="2">
-        <v>569.38430107526881</v>
-      </c>
-      <c r="M5" s="2">
-        <v>606.81430107526887</v>
-      </c>
-      <c r="N5" s="2">
-        <v>560.62430107526882</v>
-      </c>
-      <c r="O5" s="2">
-        <v>629.61430107526871</v>
-      </c>
-      <c r="P5" s="2">
-        <v>592.25430107526881</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>658.6443010752688</v>
-      </c>
-      <c r="R5" s="2">
-        <v>409.05430107526877</v>
-      </c>
-      <c r="S5" s="2">
-        <v>619.37430107526882</v>
-      </c>
-      <c r="T5" s="2">
-        <v>457.23430107526883</v>
-      </c>
-      <c r="U5" s="2">
-        <v>483.88430107526881</v>
-      </c>
-      <c r="V5" s="2">
-        <v>573.19430107526887</v>
-      </c>
-      <c r="W5" s="2">
-        <v>511.60430107526878</v>
-      </c>
-      <c r="X5" s="2">
-        <v>633.19430107526887</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>577.03430107526879</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>537.0143010752688</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>648.78430107526879</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>587.80430107526877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>435.51971719983908</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>478.24614184682491</v>
-      </c>
-      <c r="F6" s="2">
-        <v>457.21544805385309</v>
-      </c>
-      <c r="G6" s="2">
-        <v>429.00049502174755</v>
-      </c>
-      <c r="H6" s="2">
-        <v>511.22461182661272</v>
-      </c>
-      <c r="I6" s="2">
-        <v>464.22342648072367</v>
-      </c>
-      <c r="J6" s="2">
-        <v>474.97375066139745</v>
-      </c>
-      <c r="K6" s="2">
-        <v>435.01896544067296</v>
-      </c>
-      <c r="L6" s="2">
-        <v>332.47947072710497</v>
-      </c>
-      <c r="M6" s="2">
-        <v>398.90531359082587</v>
-      </c>
-      <c r="N6" s="2">
-        <v>432.65537115784514</v>
-      </c>
-      <c r="O6" s="2">
-        <v>381.95562688319347</v>
-      </c>
-      <c r="P6" s="2">
-        <v>384.83256879355622</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>474.72147948653725</v>
-      </c>
-      <c r="R6" s="2">
-        <v>398.07445523440509</v>
-      </c>
-      <c r="S6" s="2">
-        <v>450.22276606846208</v>
-      </c>
-      <c r="T6" s="2">
-        <v>512.80011038198575</v>
-      </c>
-      <c r="U6" s="2">
-        <v>486.00616622453077</v>
-      </c>
-      <c r="V6" s="2">
-        <v>391.15257189618558</v>
-      </c>
-      <c r="W6" s="2">
-        <v>486.36274663613511</v>
-      </c>
-      <c r="X6" s="2">
-        <v>408.22328094690391</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>477.93506130904052</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>351.60885414737356</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>454.08991335573199</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>399.20176431608064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>437.71701085048289</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
         <v>397.24465560535975</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>621.29763421039252</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>486.30338230804983</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>312.0120550667375</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>419.77528864808875</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>434.0829894776324</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>418.10366651508241</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>569.81115016781951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>431.94579609260273</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>485.26220746082612</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>379.71696197198213</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>371.87751704009554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>525.01132789460655</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>506.11872369719828</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>529.61934224332538</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>446.02616672818266</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>324.50152689931434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>376.95094802340475</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>308.78459138867402</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>333.40691348627121</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>344.78198083093213</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>512.29386198766667</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>517.74864740447561</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>443.65495259833392</v>
       </c>
     </row>
@@ -2801,7 +2872,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2812,56 +2883,56 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>3190.8258064516062</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>5372.0130107526893</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>8800.0788172043285</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>8560.4788172042972</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
         <v>12.30867186870136</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>20.722643426681266</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>33.946473154588496</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>33.022211550028871</v>
       </c>
     </row>
@@ -2876,104 +2947,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/江西/导出模板/市场化合同分析结果.xlsx
+++ b/江西/导出模板/市场化合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A0F06CB-7376-4F04-B09A-1566A5AEBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{330BC4BD-EDB7-4A3B-8945-3843E9FF4686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>-44.453188282253279</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>11582549.679967742</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>470352.46912365593</v>
+      </c>
+      <c r="F12">
+        <v>499107.30712365592</v>
+      </c>
+      <c r="G12">
+        <v>554071.5321236559</v>
+      </c>
+      <c r="H12">
+        <v>504748.09712365596</v>
+      </c>
+      <c r="I12">
+        <v>517151.47312365589</v>
+      </c>
+      <c r="J12">
+        <v>536091.94812365598</v>
+      </c>
+      <c r="K12">
+        <v>465214.3201236559</v>
+      </c>
+      <c r="L12">
+        <v>380923.67112365592</v>
+      </c>
+      <c r="M12">
+        <v>521185.98812365596</v>
+      </c>
+      <c r="N12">
+        <v>468752.90512365592</v>
+      </c>
+      <c r="O12">
+        <v>439949.87112365593</v>
+      </c>
+      <c r="P12">
+        <v>496100.79812365584</v>
+      </c>
+      <c r="Q12">
+        <v>591248.60112365591</v>
+      </c>
+      <c r="R12">
+        <v>379162.1731236559</v>
+      </c>
+      <c r="S12">
+        <v>502569.80612365587</v>
+      </c>
+      <c r="T12">
+        <v>426748.1511236559</v>
+      </c>
+      <c r="U12">
+        <v>489667.72812365601</v>
+      </c>
+      <c r="V12">
+        <v>489568.66112365597</v>
+      </c>
+      <c r="W12">
+        <v>555748.19412365579</v>
+      </c>
+      <c r="X12">
+        <v>486460.20012365584</v>
+      </c>
+      <c r="Y12">
+        <v>483053.36412365589</v>
+      </c>
+      <c r="Z12">
+        <v>390425.86612365593</v>
+      </c>
+      <c r="AA12">
+        <v>465071.37112365593</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>469175.18312365585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>25923.396451612902</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1014.1486021505376</v>
+      </c>
+      <c r="F13">
+        <v>1028.3486021505375</v>
+      </c>
+      <c r="G13">
+        <v>1224.9586021505377</v>
+      </c>
+      <c r="H13">
+        <v>1050.9686021505377</v>
+      </c>
+      <c r="I13">
+        <v>1142.9386021505375</v>
+      </c>
+      <c r="J13">
+        <v>1126.2186021505377</v>
+      </c>
+      <c r="K13">
+        <v>970.96860215053766</v>
+      </c>
+      <c r="L13">
+        <v>1001.9286021505376</v>
+      </c>
+      <c r="M13">
+        <v>1153.5386021505378</v>
+      </c>
+      <c r="N13">
+        <v>1034.2586021505376</v>
+      </c>
+      <c r="O13">
+        <v>1147.5686021505376</v>
+      </c>
+      <c r="P13">
+        <v>1057.3986021505375</v>
+      </c>
+      <c r="Q13">
+        <v>1202.8086021505378</v>
+      </c>
+      <c r="R13">
+        <v>970.84860215053754</v>
+      </c>
+      <c r="S13">
+        <v>1139.8486021505378</v>
+      </c>
+      <c r="T13">
+        <v>971.33860215053767</v>
+      </c>
+      <c r="U13">
+        <v>971.31860215053757</v>
+      </c>
+      <c r="V13">
+        <v>1198.4886021505376</v>
+      </c>
+      <c r="W13">
+        <v>1077.6786021505377</v>
+      </c>
+      <c r="X13">
+        <v>1168.0986021505378</v>
+      </c>
+      <c r="Y13">
+        <v>1056.2386021505376</v>
+      </c>
+      <c r="Z13">
+        <v>966.48860215053764</v>
+      </c>
+      <c r="AA13">
+        <v>1153.1886021505377</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1093.8086021505378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>446.79907980372298</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>463.7904821110605</v>
+      </c>
+      <c r="F14">
+        <v>485.34835957368546</v>
+      </c>
+      <c r="G14">
+        <v>452.31857725716424</v>
+      </c>
+      <c r="H14">
+        <v>480.2694353483239</v>
+      </c>
+      <c r="I14">
+        <v>452.47528795561794</v>
+      </c>
+      <c r="J14">
+        <v>476.01056056078045</v>
+      </c>
+      <c r="K14">
+        <v>479.12395837855291</v>
+      </c>
+      <c r="L14">
+        <v>380.19043503303737</v>
+      </c>
+      <c r="M14">
+        <v>451.81495196780656</v>
+      </c>
+      <c r="N14">
+        <v>453.22601537852944</v>
+      </c>
+      <c r="O14">
+        <v>383.37566076589422</v>
+      </c>
+      <c r="P14">
+        <v>469.1710364612606</v>
+      </c>
+      <c r="Q14">
+        <v>491.55667831652073</v>
+      </c>
+      <c r="R14">
+        <v>390.54716902694156</v>
+      </c>
+      <c r="S14">
+        <v>440.90926213837861</v>
+      </c>
+      <c r="T14">
+        <v>439.34025702143219</v>
+      </c>
+      <c r="U14">
+        <v>504.12678912924389</v>
+      </c>
+      <c r="V14">
+        <v>408.48837464552133</v>
+      </c>
+      <c r="W14">
+        <v>515.69010743522676</v>
+      </c>
+      <c r="X14">
+        <v>416.45474040295414</v>
+      </c>
+      <c r="Y14">
+        <v>457.33356378013724</v>
+      </c>
+      <c r="Z14">
+        <v>403.96323894034322</v>
+      </c>
+      <c r="AA14">
+        <v>403.29168208596752</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>428.93718535510709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>450.010944596569</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>372.50109475589568</v>
+      </c>
+      <c r="F15">
+        <v>461.53624665033465</v>
+      </c>
+      <c r="G15">
+        <v>388.08938504746482</v>
+      </c>
+      <c r="H15">
+        <v>284.20066944568703</v>
+      </c>
+      <c r="I15">
+        <v>340.47719496110716</v>
+      </c>
+      <c r="J15">
+        <v>377.94445128719826</v>
+      </c>
+      <c r="K15">
+        <v>410.04419962238677</v>
+      </c>
+      <c r="L15">
+        <v>535.03195899754519</v>
+      </c>
+      <c r="M15">
+        <v>477.82654132622656</v>
+      </c>
+      <c r="N15">
+        <v>496.24731440603915</v>
+      </c>
+      <c r="O15">
+        <v>410.69443658731768</v>
+      </c>
+      <c r="P15">
+        <v>383.89653920844188</v>
+      </c>
+      <c r="Q15">
+        <v>420.49917395799429</v>
+      </c>
+      <c r="R15">
+        <v>395.5253628332801</v>
+      </c>
+      <c r="S15">
+        <v>459.54262460742751</v>
+      </c>
+      <c r="T15">
+        <v>462.84323166364811</v>
+      </c>
+      <c r="U15">
+        <v>455.47771538770098</v>
+      </c>
+      <c r="V15">
+        <v>528.80163163254713</v>
+      </c>
+      <c r="W15">
+        <v>543.8256026229617</v>
+      </c>
+      <c r="X15">
+        <v>523.94731924834741</v>
+      </c>
+      <c r="Y15">
+        <v>524.99560194159767</v>
+      </c>
+      <c r="Z15">
+        <v>582.26195542652238</v>
+      </c>
+      <c r="AA15">
+        <v>534.20530769127845</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>436.94484958102396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>-3.2118647928460291</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>91.28938735516482</v>
+      </c>
+      <c r="F16">
+        <v>23.81211292335081</v>
+      </c>
+      <c r="G16">
+        <v>64.22919220969942</v>
+      </c>
+      <c r="H16">
+        <v>196.06876590263687</v>
+      </c>
+      <c r="I16">
+        <v>111.99809299451078</v>
+      </c>
+      <c r="J16">
+        <v>98.066109273582185</v>
+      </c>
+      <c r="K16">
+        <v>69.079758756166143</v>
+      </c>
+      <c r="L16">
+        <v>-154.84152396450781</v>
+      </c>
+      <c r="M16">
+        <v>-26.011589358419997</v>
+      </c>
+      <c r="N16">
+        <v>-43.021299027509713</v>
+      </c>
+      <c r="O16">
+        <v>-27.318775821423458</v>
+      </c>
+      <c r="P16">
+        <v>85.274497252818719</v>
+      </c>
+      <c r="Q16">
+        <v>71.057504358526444</v>
+      </c>
+      <c r="R16">
+        <v>-4.9781938063385383</v>
+      </c>
+      <c r="S16">
+        <v>-18.633362469048905</v>
+      </c>
+      <c r="T16">
+        <v>-23.502974642215918</v>
+      </c>
+      <c r="U16">
+        <v>48.649073741542907</v>
+      </c>
+      <c r="V16">
+        <v>-120.3132569870258</v>
+      </c>
+      <c r="W16">
+        <v>-28.135495187734932</v>
+      </c>
+      <c r="X16">
+        <v>-107.49257884539327</v>
+      </c>
+      <c r="Y16">
+        <v>-67.66203816146043</v>
+      </c>
+      <c r="Z16">
+        <v>-178.29871648617916</v>
+      </c>
+      <c r="AA16">
+        <v>-130.91362560531093</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-8.0076642259168693</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>11582549.679967742</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>470352.46912365593</v>
+      </c>
+      <c r="F8">
+        <v>499107.30712365592</v>
+      </c>
+      <c r="G8">
+        <v>554071.5321236559</v>
+      </c>
+      <c r="H8">
+        <v>504748.09712365596</v>
+      </c>
+      <c r="I8">
+        <v>517151.47312365589</v>
+      </c>
+      <c r="J8">
+        <v>536091.94812365598</v>
+      </c>
+      <c r="K8">
+        <v>465214.3201236559</v>
+      </c>
+      <c r="L8">
+        <v>380923.67112365592</v>
+      </c>
+      <c r="M8">
+        <v>521185.98812365596</v>
+      </c>
+      <c r="N8">
+        <v>468752.90512365592</v>
+      </c>
+      <c r="O8">
+        <v>439949.87112365593</v>
+      </c>
+      <c r="P8">
+        <v>496100.79812365584</v>
+      </c>
+      <c r="Q8">
+        <v>591248.60112365591</v>
+      </c>
+      <c r="R8">
+        <v>379162.1731236559</v>
+      </c>
+      <c r="S8">
+        <v>502569.80612365587</v>
+      </c>
+      <c r="T8">
+        <v>426748.1511236559</v>
+      </c>
+      <c r="U8">
+        <v>489667.72812365601</v>
+      </c>
+      <c r="V8">
+        <v>489568.66112365597</v>
+      </c>
+      <c r="W8">
+        <v>555748.19412365579</v>
+      </c>
+      <c r="X8">
+        <v>486460.20012365584</v>
+      </c>
+      <c r="Y8">
+        <v>483053.36412365589</v>
+      </c>
+      <c r="Z8">
+        <v>390425.86612365593</v>
+      </c>
+      <c r="AA8">
+        <v>465071.37112365593</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>469175.18312365585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>11665812.124341667</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>377771.46454623656</v>
+      </c>
+      <c r="F9">
+        <v>474620.15408467734</v>
+      </c>
+      <c r="G9">
+        <v>475393.43061720429</v>
+      </c>
+      <c r="H9">
+        <v>298685.98029758071</v>
+      </c>
+      <c r="I9">
+        <v>389144.52927298384</v>
+      </c>
+      <c r="J9">
+        <v>425648.07161922043</v>
+      </c>
+      <c r="K9">
+        <v>398140.04332728492</v>
+      </c>
+      <c r="L9">
+        <v>536063.82278427423</v>
+      </c>
+      <c r="M9">
+        <v>551191.3605518816</v>
+      </c>
+      <c r="N9">
+        <v>513248.05371854838</v>
+      </c>
+      <c r="O9">
+        <v>471300.04050551075</v>
+      </c>
+      <c r="P9">
+        <v>405931.66392943548</v>
+      </c>
+      <c r="Q9">
+        <v>505780.02363387094</v>
+      </c>
+      <c r="R9">
+        <v>383995.24562177417</v>
+      </c>
+      <c r="S9">
+        <v>523809.01828736556</v>
+      </c>
+      <c r="T9">
+        <v>449577.49765900546</v>
+      </c>
+      <c r="U9">
+        <v>442413.97782110213</v>
+      </c>
+      <c r="V9">
+        <v>633762.72831021494</v>
+      </c>
+      <c r="W9">
+        <v>586069.21524838719</v>
+      </c>
+      <c r="X9">
+        <v>612022.13121451612</v>
+      </c>
+      <c r="Y9">
+        <v>554520.62072997319</v>
+      </c>
+      <c r="Z9">
+        <v>562749.54338561825</v>
+      </c>
+      <c r="AA9">
+        <v>616039.47203790327</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>477934.03513709683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>92581.004577419371</v>
+      </c>
+      <c r="F10">
+        <v>24487.153038978577</v>
+      </c>
+      <c r="G10">
+        <v>78678.10150645161</v>
+      </c>
+      <c r="H10">
+        <v>206062.11682607525</v>
+      </c>
+      <c r="I10">
+        <v>128006.94385067205</v>
+      </c>
+      <c r="J10">
+        <v>110443.87650443555</v>
+      </c>
+      <c r="K10">
+        <v>67074.276796370978</v>
+      </c>
+      <c r="L10">
+        <v>-155140.15166061831</v>
+      </c>
+      <c r="M10">
+        <v>-30005.372428225644</v>
+      </c>
+      <c r="N10">
+        <v>-44495.148594892467</v>
+      </c>
+      <c r="O10">
+        <v>-31350.169381854823</v>
+      </c>
+      <c r="P10">
+        <v>90169.134194220358</v>
+      </c>
+      <c r="Q10">
+        <v>85468.577489784977</v>
+      </c>
+      <c r="R10">
+        <v>-4833.0724981182721</v>
+      </c>
+      <c r="S10">
+        <v>-21239.212163709686</v>
+      </c>
+      <c r="T10">
+        <v>-22829.346535349556</v>
+      </c>
+      <c r="U10">
+        <v>47253.750302553875</v>
+      </c>
+      <c r="V10">
+        <v>-144194.06718655897</v>
+      </c>
+      <c r="W10">
+        <v>-30321.0211247314</v>
+      </c>
+      <c r="X10">
+        <v>-125561.93109086028</v>
+      </c>
+      <c r="Y10">
+        <v>-71467.2566063173</v>
+      </c>
+      <c r="Z10">
+        <v>-172323.67726196232</v>
+      </c>
+      <c r="AA10">
+        <v>-150968.10091424733</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-8758.8520134409773</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>443.65495259833392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>25923.396451612902</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1014.1486021505376</v>
+      </c>
+      <c r="F8">
+        <v>1028.3486021505375</v>
+      </c>
+      <c r="G8">
+        <v>1224.9586021505377</v>
+      </c>
+      <c r="H8">
+        <v>1050.9686021505377</v>
+      </c>
+      <c r="I8">
+        <v>1142.9386021505375</v>
+      </c>
+      <c r="J8">
+        <v>1126.2186021505377</v>
+      </c>
+      <c r="K8">
+        <v>970.96860215053766</v>
+      </c>
+      <c r="L8">
+        <v>1001.9286021505376</v>
+      </c>
+      <c r="M8">
+        <v>1153.5386021505378</v>
+      </c>
+      <c r="N8">
+        <v>1034.2586021505376</v>
+      </c>
+      <c r="O8">
+        <v>1147.5686021505376</v>
+      </c>
+      <c r="P8">
+        <v>1057.3986021505375</v>
+      </c>
+      <c r="Q8">
+        <v>1202.8086021505378</v>
+      </c>
+      <c r="R8">
+        <v>970.84860215053754</v>
+      </c>
+      <c r="S8">
+        <v>1139.8486021505378</v>
+      </c>
+      <c r="T8">
+        <v>971.33860215053767</v>
+      </c>
+      <c r="U8">
+        <v>971.31860215053757</v>
+      </c>
+      <c r="V8">
+        <v>1198.4886021505376</v>
+      </c>
+      <c r="W8">
+        <v>1077.6786021505377</v>
+      </c>
+      <c r="X8">
+        <v>1168.0986021505378</v>
+      </c>
+      <c r="Y8">
+        <v>1056.2386021505376</v>
+      </c>
+      <c r="Z8">
+        <v>966.48860215053764</v>
+      </c>
+      <c r="AA8">
+        <v>1153.1886021505377</v>
+      </c>
+      <c r="AB8">
+        <v>1093.8086021505378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>446.79907980372298</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>463.7904821110605</v>
+      </c>
+      <c r="F9">
+        <v>485.34835957368546</v>
+      </c>
+      <c r="G9">
+        <v>452.31857725716424</v>
+      </c>
+      <c r="H9">
+        <v>480.2694353483239</v>
+      </c>
+      <c r="I9">
+        <v>452.47528795561794</v>
+      </c>
+      <c r="J9">
+        <v>476.01056056078045</v>
+      </c>
+      <c r="K9">
+        <v>479.12395837855291</v>
+      </c>
+      <c r="L9">
+        <v>380.19043503303737</v>
+      </c>
+      <c r="M9">
+        <v>451.81495196780656</v>
+      </c>
+      <c r="N9">
+        <v>453.22601537852944</v>
+      </c>
+      <c r="O9">
+        <v>383.37566076589422</v>
+      </c>
+      <c r="P9">
+        <v>469.1710364612606</v>
+      </c>
+      <c r="Q9">
+        <v>491.55667831652073</v>
+      </c>
+      <c r="R9">
+        <v>390.54716902694156</v>
+      </c>
+      <c r="S9">
+        <v>440.90926213837861</v>
+      </c>
+      <c r="T9">
+        <v>439.34025702143219</v>
+      </c>
+      <c r="U9">
+        <v>504.12678912924389</v>
+      </c>
+      <c r="V9">
+        <v>408.48837464552133</v>
+      </c>
+      <c r="W9">
+        <v>515.69010743522676</v>
+      </c>
+      <c r="X9">
+        <v>416.45474040295414</v>
+      </c>
+      <c r="Y9">
+        <v>457.33356378013724</v>
+      </c>
+      <c r="Z9">
+        <v>403.96323894034322</v>
+      </c>
+      <c r="AA9">
+        <v>403.29168208596752</v>
+      </c>
+      <c r="AB9">
+        <v>428.93718535510709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>450.010944596569</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>372.50109475589568</v>
+      </c>
+      <c r="F10">
+        <v>461.53624665033465</v>
+      </c>
+      <c r="G10">
+        <v>388.08938504746482</v>
+      </c>
+      <c r="H10">
+        <v>284.20066944568703</v>
+      </c>
+      <c r="I10">
+        <v>340.47719496110716</v>
+      </c>
+      <c r="J10">
+        <v>377.94445128719826</v>
+      </c>
+      <c r="K10">
+        <v>410.04419962238677</v>
+      </c>
+      <c r="L10">
+        <v>535.03195899754519</v>
+      </c>
+      <c r="M10">
+        <v>477.82654132622656</v>
+      </c>
+      <c r="N10">
+        <v>496.24731440603915</v>
+      </c>
+      <c r="O10">
+        <v>410.69443658731768</v>
+      </c>
+      <c r="P10">
+        <v>383.89653920844188</v>
+      </c>
+      <c r="Q10">
+        <v>420.49917395799429</v>
+      </c>
+      <c r="R10">
+        <v>395.5253628332801</v>
+      </c>
+      <c r="S10">
+        <v>459.54262460742751</v>
+      </c>
+      <c r="T10">
+        <v>462.84323166364811</v>
+      </c>
+      <c r="U10">
+        <v>455.47771538770098</v>
+      </c>
+      <c r="V10">
+        <v>528.80163163254713</v>
+      </c>
+      <c r="W10">
+        <v>543.8256026229617</v>
+      </c>
+      <c r="X10">
+        <v>523.94731924834741</v>
+      </c>
+      <c r="Y10">
+        <v>524.99560194159767</v>
+      </c>
+      <c r="Z10">
+        <v>582.26195542652238</v>
+      </c>
+      <c r="AA10">
+        <v>534.20530769127845</v>
+      </c>
+      <c r="AB10">
+        <v>436.94484958102396</v>
       </c>
     </row>
   </sheetData>
